--- a/profile/personal_area/downland_files/uploaded_files/test.xlsx
+++ b/profile/personal_area/downland_files/uploaded_files/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2355" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="3705" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>м</t>
   </si>
@@ -29,18 +29,12 @@
     <t>RG-58AU</t>
   </si>
   <si>
-    <t xml:space="preserve">БИФ </t>
-  </si>
-  <si>
     <t>БИФЭЗ</t>
   </si>
   <si>
     <t xml:space="preserve"> 2х1,0</t>
   </si>
   <si>
-    <t xml:space="preserve">КСВ 5е </t>
-  </si>
-  <si>
     <t>2х2х0,5</t>
   </si>
   <si>
@@ -75,13 +69,34 @@
   </si>
   <si>
     <t>fcku</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КСВ                            5е </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                   БИФ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +119,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF98C379"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,11 +163,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -450,146 +475,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3">
-        <v>8100</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="3">
-        <v>12700</v>
+        <v>8100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.75</v>
       </c>
       <c r="C3" s="3">
-        <v>49.5</v>
+        <v>12700</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>600</v>
+        <v>49.5</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
-        <v>4800</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>571</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/profile/personal_area/downland_files/uploaded_files/test.xlsx
+++ b/profile/personal_area/downland_files/uploaded_files/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="3705" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="4605" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>м</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                   БИФ </t>
+  </si>
+  <si>
+    <t>fck</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,9 +551,6 @@
       <c r="C4" s="3">
         <v>49.5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -580,9 +580,6 @@
       <c r="C6" s="3">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -595,9 +592,6 @@
       <c r="C7" s="3">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
@@ -632,6 +626,23 @@
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>322</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/profile/personal_area/downland_files/uploaded_files/test.xlsx
+++ b/profile/personal_area/downland_files/uploaded_files/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="4605" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="5505" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>м</t>
   </si>
@@ -68,9 +68,6 @@
     <t>green</t>
   </si>
   <si>
-    <t>fcku</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>fck</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
 </sst>
 </file>
@@ -478,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,19 +496,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -526,7 +526,7 @@
     </row>
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3">
         <v>0.75</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -624,9 +624,7 @@
       <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -641,7 +639,39 @@
       <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>571</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3">
+        <v>322</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
     </row>

--- a/profile/personal_area/downland_files/uploaded_files/test.xlsx
+++ b/profile/personal_area/downland_files/uploaded_files/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="5505" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="5955" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>м</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>of</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>упак</t>
   </si>
 </sst>
 </file>
@@ -481,7 +487,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +643,7 @@
         <v>322</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -669,7 +675,7 @@
         <v>322</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>

--- a/profile/personal_area/downland_files/uploaded_files/test.xlsx
+++ b/profile/personal_area/downland_files/uploaded_files/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="5955" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="120" yWindow="7305" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>м</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>упак</t>
+  </si>
+  <si>
+    <t>1,50 5</t>
+  </si>
+  <si>
+    <t>КСВ                            5е АК</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +685,51 @@
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3">
+        <v>323</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>322</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
